--- a/Case/imoocsen.xlsx
+++ b/Case/imoocsen.xlsx
@@ -35,6 +35,58 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -50,97 +102,8 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -164,7 +127,44 @@
       <name val="等线"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -178,13 +178,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,103 +340,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,36 +352,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -341,24 +359,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,32 +375,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,6 +422,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -450,22 +446,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,10 +475,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -487,131 +487,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1031,11 +1031,14 @@
     <col width="10.8833333333333" customWidth="1" min="4" max="4"/>
     <col width="12.1083333333333" customWidth="1" min="5" max="5"/>
     <col width="23.6666666666667" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="14.75" customWidth="1" min="8" max="8"/>
     <col width="13.6666666666667" customWidth="1" min="9" max="9"/>
     <col width="13.1083333333333" customWidth="1" min="10" max="10"/>
     <col width="12.775" customWidth="1" min="11" max="11"/>
     <col width="8.883333333333329" customWidth="1" style="1" min="12" max="12"/>
     <col width="9" customWidth="1" style="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1106,7 +1109,7 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>数据</t>
+          <t>response数据</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1162,7 @@
       <c r="L2" s="6" t="n"/>
       <c r="M2" s="6" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1618392621510}</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1184,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>imooc_001&gt;data.banner.[0].id</t>
+          <t>imooc_007&gt;status</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
@@ -1201,7 +1204,7 @@
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>{"username":"111112"}</t>
+          <t>{"username":"111113","coursename":"test","orderid":"123","id":"123"}</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -1226,7 +1229,7 @@
       </c>
       <c r="M3" s="6" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>{"status": 1, "data": [], "errorCode": 8001, "errorDesc": "\u8bf7\u5347\u7ea7app\u7248\u672c", "timestamp": 1618392621982}</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1251,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>imooc_001&gt;data.banner.[0].id</t>
+          <t>imooc_007&gt;id</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
@@ -1289,7 +1292,7 @@
       <c r="L4" s="6" t="n"/>
       <c r="M4" s="6" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1618392622343}</t>
         </is>
       </c>
     </row>
@@ -1345,11 +1348,6 @@
           <t>失败</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1618294797280}</t>
-        </is>
-      </c>
     </row>
     <row r="6" ht="42.75" customHeight="1">
       <c r="A6" t="inlineStr">
@@ -1400,7 +1398,7 @@
       <c r="L6" s="6" t="n"/>
       <c r="M6" s="6" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1618392622865}</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1451,7 @@
       <c r="L7" s="6" t="n"/>
       <c r="M7" s="6" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1618392623179}</t>
         </is>
       </c>
     </row>
@@ -1473,6 +1471,7 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="D8" s="5" t="n"/>
       <c r="F8" s="2" t="inlineStr">
         <is>
           <t>api3/courselistinfo</t>
@@ -1485,7 +1484,7 @@
       </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
-          <t>{"username":"111117"}</t>
+          <t>{"username":"111117","coursename":"test","orderid":"1237","id":"1237"}</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -1507,11 +1506,6 @@
       <c r="M8" s="6" t="inlineStr">
         <is>
           <t>失败</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1618294798002}</t>
         </is>
       </c>
     </row>

--- a/Case/imoocsen.xlsx
+++ b/Case/imoocsen.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -27,9 +27,31 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <color theme="10"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -42,7 +64,46 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -51,43 +112,6 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -127,14 +151,13 @@
       <name val="等线"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -142,8 +165,7 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -154,20 +176,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -178,187 +186,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,11 +380,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -392,17 +421,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,32 +460,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,10 +483,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -487,148 +495,151 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -1013,31 +1024,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col width="13.775" customWidth="1" min="1" max="1"/>
-    <col width="12.3333333333333" customWidth="1" min="2" max="2"/>
-    <col width="10.8833333333333" customWidth="1" min="4" max="4"/>
-    <col width="12.1083333333333" customWidth="1" min="5" max="5"/>
-    <col width="23.6666666666667" customWidth="1" min="6" max="6"/>
+    <col width="15.875" customWidth="1" min="2" max="2"/>
+    <col width="15.875" customWidth="1" min="4" max="4"/>
+    <col width="12.375" customWidth="1" min="5" max="5"/>
+    <col width="28.125" customWidth="1" style="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="14.75" customWidth="1" min="8" max="8"/>
+    <col width="14.75" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.6666666666667" customWidth="1" min="9" max="9"/>
     <col width="13.1083333333333" customWidth="1" min="10" max="10"/>
     <col width="12.775" customWidth="1" min="11" max="11"/>
-    <col width="8.883333333333329" customWidth="1" style="1" min="12" max="12"/>
-    <col width="9" customWidth="1" style="1" min="13" max="13"/>
+    <col width="8.883333333333329" customWidth="1" style="2" min="12" max="12"/>
+    <col width="9" customWidth="1" style="2" min="13" max="13"/>
     <col width="12" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
@@ -1067,7 +1078,7 @@
           <t>依赖key</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
@@ -1077,7 +1088,7 @@
           <t>method</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
@@ -1097,12 +1108,12 @@
           <t>预期结果方式</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -1113,15 +1124,15 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="42.75" customHeight="1">
+    <row r="2" ht="33" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>imooc_001</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>获取广告位</t>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>CRM获取ssesionId</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1129,52 +1140,61 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>api3/getbanneradvertver2</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>http://test.passport.be.lvdatong.com/sso/login</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t>{"username":"111111"}</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>"B+Dd/3iw6TX/aoPg+bg40Y3epe7fWj6hI6heq/fpWPHUSLHantqFdh88HPfHGC7En71QWlY8bqCrhZRjpbLspK/i0bZZveDrkTYiFWYjUV2Vlf7S4cTPQ5/eZKJ55zlKLLHIuAhHXLF8X6JOpm3jOFy9DhdT8jSqtzXS9HzRVySXtHHli5+hrtjbWkxc0en2Aq17EaLZjAqUCqrcZJC472irCI0h2sJ6dOSUDUSJvDYUK5FB8xGWIFxhQtk3nPuy0R202OfqUlcLNCLJ6vYvJiKqVhNTxFtlnAnI0MrF3VeWUrEj1XQl65DryujkA9ivpXwIkCQzk/tcy1fU/fiU/w=="</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>mec</t>
-        </is>
-      </c>
-      <c r="L2" s="6" t="n"/>
-      <c r="M2" s="6" t="inlineStr">
-        <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1618392621510}</t>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="L2" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" s="7" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>{"code": "0", "msg": "OK", "result": {"sessionId": "EACCC178175A4498B5494A644D5E4919", "isLogined": 1}}</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="42.75" customHeight="1">
+    <row r="3" ht="36" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>imooc_002</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>测试</t>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>CRM获取Ticket</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1182,66 +1202,63 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>imooc_007&gt;status</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>api3/beta4</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>imooc_001&gt;result.[0].sessionId</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>sessionId</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>http://test.passport.be.lvdatong.com/sso/generateTicket</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>{"username":"111113","coursename":"test","orderid":"123","id":"123"}</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>errorCode</t>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>{"sessionId":"A945D8C5DB5C40A9B7E02025FD019DD1"}</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>json</t>
         </is>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>8001</t>
-        </is>
-      </c>
-      <c r="M3" s="6" t="inlineStr">
-        <is>
-          <t>{"status": 1, "data": [], "errorCode": 8001, "errorDesc": "\u8bf7\u5347\u7ea7app\u7248\u672c", "timestamp": 1618392621982}</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" s="7" t="n"/>
     </row>
-    <row r="4" ht="99.75" customHeight="1">
+    <row r="4" ht="39" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
           <t>imooc_003</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>新课程</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>登录CRM，
+并获取Token</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1249,52 +1266,52 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>imooc_007&gt;id</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>api3/newcourseskill</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>imooc_002&gt;ticket</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ticket</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>security/getToken</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t>{"username":"111113","coursename":"test","orderid":"123","id":"123"}</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>{"ticket":"31665B2467894A12828B344A8BF9D9E1","uuid":"7AFB168808830937301452C2DFDC2929"}</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="L4" s="6" t="n"/>
-      <c r="M4" s="6" t="inlineStr">
-        <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1618392622343}</t>
-        </is>
-      </c>
+      <c r="L4" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="7" t="n"/>
     </row>
     <row r="5" ht="42.75" customHeight="1">
       <c r="A5" t="inlineStr">
@@ -1302,9 +1319,9 @@
           <t>imooc_004</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>评价</t>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>新增用户</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1312,42 +1329,70 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>api3/getdownrecommend</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>customer/addCustomer</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
-          <t>{"username":"111114"}</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>{
+"customerId":"",
+"name":"TEST法务咨询有限公司00188",
+"shortName":"",
+"cusSource":"2",
+"cusType":"1",
+"license":"123565656550088",
+"province":3624,
+"city":3677,
+"district":3685,
+"address":"详细地址详细地址详细地址888",
+"legalPerson":"",
+"businessScope":"",
+"tradeId":"",
+"employees":"",
+"phone":"",
+"email":"",
+"fax":"",
+"remark":"",
+"customerContacts":[{"contactId":"","contactName":"Sen88","sex":"1","mobile":"13246889988","job":"","dept":"","position":"","telephone":"","qq":"","email":"","wechat":"","type":"1","contactRole":"2"}],
+"customerParticipants":[],
+"type":"0",
+"companyType":"",
+"website":"",
+"registeredCapital":"",
+"anotherPhone":"",
+"refereeMobile":"",
+"masterMobile":""
+}</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="L5" s="6" t="n"/>
-      <c r="M5" s="6" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="L5" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="7" t="n"/>
     </row>
     <row r="6" ht="42.75" customHeight="1">
       <c r="A6" t="inlineStr">
@@ -1355,9 +1400,9 @@
           <t>imooc_005</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>课程信息</t>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>客户详情</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1365,42 +1410,52 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>api3/getcourseintro</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>imooc_004&gt;result</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>customerId</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>customer/detail</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>{"username":"111115"}</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>{"customerId":"1111"}</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="L6" s="6" t="n"/>
-      <c r="M6" s="6" t="inlineStr">
-        <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1618392622865}</t>
-        </is>
-      </c>
+      <c r="L6" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M6" s="7" t="n"/>
     </row>
     <row r="7" ht="42.75" customHeight="1">
       <c r="A7" t="inlineStr">
@@ -1408,9 +1463,9 @@
           <t>imooc_006</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>播放列表</t>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>新建订单前选择套餐</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1418,42 +1473,38 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>api3/getmedialist</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>{"username":"111116"}</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>productSet/selectAllProductSet</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="n"/>
+      <c r="I7" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="L7" s="6" t="n"/>
-      <c r="M7" s="6" t="inlineStr">
-        <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1618392623179}</t>
-        </is>
-      </c>
+      <c r="L7" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="7" t="n"/>
     </row>
     <row r="8" ht="42.75" customHeight="1">
       <c r="A8" t="inlineStr">
@@ -1461,9 +1512,9 @@
           <t>imooc_007</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>课程列表</t>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>新建订单</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1471,53 +1522,89 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n"/>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>api3/courselistinfo</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>[{"imooc_005&gt;result.creatorPhone"},{"imooc_004&gt;result"},{"imooc_006&gt;result.[0].id"}]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[{"mobile"},{"customerId"},{"productSetId"}]</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>order/create</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="H8" s="4" t="inlineStr">
-        <is>
-          <t>{"username":"111117","coursename":"test","orderid":"1237","id":"1237"}</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>{
+"mobile":"13246889988",
+"customerId":"112223",
+"productSetId":"123456666",
+"contractCode":"",
+"contractDate":"2021-1-13",
+"bonusMonth":3,
+"contractAttachments":[],
+"investigationAttachments":[],
+"enterpriseAttachments":[],
+"licenseAttachments":[],
+"contractPayDate":"",
+"downPayment":"",
+"certificateType":"",
+"paymentAttachments":[],
+"photos":[],
+"paymentMethod":"1",
+"stageInfos":null,
+"remark":"订单备注订单备注订单备注",
+"orderType":"0",
+"sourceUserId":2872,
+"gifts":[{"productId":176,"amount":"101","unlimitAmount":0}],
+"giftAttachments":[{"attachmentId":112563,"filePath":"http://test.admin.be.lvdatong.com/upload/show?path=4c703dc4-964f-4b8a-a0a7-3c3e5ee8b2f0.jpg&amp;uploadType=PRIVATE"}]
+}</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="L8" s="6" t="n"/>
-      <c r="M8" s="6" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="L8" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="L9" s="6" t="n"/>
-      <c r="M9" s="6" t="n"/>
+      <c r="L9" s="7" t="n"/>
+      <c r="M9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="L10" s="6" t="n"/>
-      <c r="M10" s="6" t="n"/>
+      <c r="L10" s="7" t="n"/>
+      <c r="M10" s="7" t="n"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" tooltip="http://test.passport.be.lvdatong.com/sso/login" display="http://test.passport.be.lvdatong.com/sso/login" r:id="rId1"/>
+    <hyperlink ref="F3" tooltip="http://test.passport.be.lvdatong.com/sso/generateTicket" display="http://test.passport.be.lvdatong.com/sso/generateTicket" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>

--- a/Case/imoocsen.xlsx
+++ b/Case/imoocsen.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sen\python\imooc-api-learn\Case\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D66D98C-4911-4E5C-A00D-0FF208254850}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="117">
   <si>
     <t>case编号</t>
   </si>
   <si>
-    <t>作用</t>
+    <t>作用模块</t>
   </si>
   <si>
     <t>是否执行</t>
@@ -64,69 +58,469 @@
     <t>response数据</t>
   </si>
   <si>
-    <t>imooc_001</t>
-  </si>
-  <si>
-    <t>登录交易平台</t>
+    <t>wbxcx_001</t>
+  </si>
+  <si>
+    <t>企业体检-调查列表</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>security/commonLogin</t>
+    <t>8017/invest/list</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
-    <t>{"userAccount":"13246821387","password":"Bzv5xe6R1qmieqHhFFZEi0ejgiDKbx7EWQaVEoNxINDnFSmxP/MyduXT7z8kUCxGFF8F45ZrhMFuA6CiNkkg35ItZyxgKmN81Tt7Y0NvqScwApAc4Mu755RLBXrADTGETBokSx5i93R00aMnVbt6Z0k4VQvOVslep2UiovqxG+g62b/Eqqe9mLtklxP1jputBnDZB6Df4kpInLmt5w0vPi+yjDUY92HWgsaAvig++lzQzBmWHpYD76rn8H5zP1SP7LwthdbKIFMoUvklAfyaf6QwNi+htpx680ZiMwNUd1+3mfUnyyaSubt67nU0psLZCaAgKyQO7beVByFH1mwiBA==","rememberMe":0,"unionId":"5339BE5A65585F1FB20BD85CF8470129","offline":false,"challenge":"960a08c8a363fb47215f2a6712100bfe3b","validate":"05437ea02b07d14593ca6a4e17bad3ee","seccode":"05437ea02b07d14593ca6a4e17bad3ee|jordan"}</t>
+    <t>{
+ "id": 0
+}</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>wbxcx_002</t>
+  </si>
+  <si>
+    <t>企业体检-调查分数</t>
+  </si>
+  <si>
+    <t>8017/invest/score</t>
+  </si>
+  <si>
+    <t>{
+ "id": 0,
+ "scoreReqDetailVos": [
+  {
+   "answer": "",
+   "id": 0
+  }
+ ]
+}</t>
+  </si>
+  <si>
+    <t>wbxcx_003</t>
+  </si>
+  <si>
+    <t>小程序-热点话题详情</t>
+  </si>
+  <si>
+    <t>8017/hotspot/detail</t>
+  </si>
+  <si>
+    <t>wbxcx_004</t>
+  </si>
+  <si>
+    <t>小程序-热点话题列表</t>
+  </si>
+  <si>
+    <t>8017/hotspot/list</t>
+  </si>
+  <si>
+    <t>{
+ "endDate": "",
+ "orderBy": "",
+ "pageNum": 0,
+ "pageSize": 0,
+ "show": 0,
+ "sort": "",
+ "startDate": "",
+ "top": 0,
+ "word": ""
+}</t>
+  </si>
+  <si>
+    <t>wbxcx_005</t>
+  </si>
+  <si>
+    <t>小程序-热点话题创建</t>
+  </si>
+  <si>
+    <t>8011/market/hotspot/create</t>
+  </si>
+  <si>
+    <t>{
+ "attachmentId": 0,
+ "content": "",
+ "hotspot": "",
+ "seq": 0,
+ "theme": "",
+ "top": 0
+}</t>
+  </si>
+  <si>
+    <t>wbxcx_006</t>
+  </si>
+  <si>
+    <t>8011/market/hotspot/detail</t>
+  </si>
+  <si>
+    <t>wbxcx_007</t>
+  </si>
+  <si>
+    <t>小程序-热点话题编辑</t>
+  </si>
+  <si>
+    <t>8011/market/hotspot/edit</t>
+  </si>
+  <si>
+    <t>{
+ "attachmentId": 0,
+ "content": "",
+ "hotspot": "",
+ "id": 0,
+ "seq": 0,
+ "theme": "",
+ "top": 0
+}</t>
+  </si>
+  <si>
+    <t>wbxcx_008</t>
+  </si>
+  <si>
+    <t>8011/market/hotspot/list</t>
+  </si>
+  <si>
+    <t>wbxcx_009</t>
+  </si>
+  <si>
+    <t>小程序-热点话题显示</t>
+  </si>
+  <si>
+    <t>8011/market/hotspot/show</t>
+  </si>
+  <si>
+    <t>{
+ "id": 0,
+ "show": 0
+}</t>
+  </si>
+  <si>
+    <t>wbxcx_010</t>
+  </si>
+  <si>
+    <t>CRM-广告分页列表</t>
+  </si>
+  <si>
+    <t>http://dev.admin.be.lvdatong.com/ad/list</t>
+  </si>
+  <si>
+    <t>{
+ "endDate": "",
+ "orderBy": "",
+ "pageNum": 0,
+ "pageSize": 0,
+ "rsa": "",
+ "searchWord": "",
+ "sign": "",
+ "sort": "",
+ "startDate": "",
+ "status": 0,
+ "type": 0,
+ "userId4Service": 0
+}</t>
+  </si>
+  <si>
+    <t>wbxcx_011</t>
+  </si>
+  <si>
+    <t>CRM-新建广告</t>
+  </si>
+  <si>
+    <t>http://dev.admin.be.lvdatong.com/ad/new</t>
+  </si>
+  <si>
+    <t>{
+ "advertTitle": "",
+ "advertType": "",
+ "attachmentId": 0,
+ "seq": 0,
+ "url": "",
+ "urlType": ""
+}</t>
+  </si>
+  <si>
+    <t>wbxcx_012</t>
+  </si>
+  <si>
+    <t>CRM-编辑广告</t>
+  </si>
+  <si>
+    <t>http://dev.admin.be.lvdatong.com/ad/edit</t>
+  </si>
+  <si>
+    <t>{
+ "adId": 0,
+ "advertTitle": "",
+ "advertType": "",
+ "attachmentId": 0,
+ "seq": 0,
+ "url": "",
+ "urlType": ""
+}</t>
   </si>
   <si>
     <t>json</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>{"pageNum":1,"pageSize":20,"queryWord":"劳动个税纠纷","minPrice":"","maxPrice":"","sortBy":"","sortSeq":"","categoryIdList":[],"productRegionId":""}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>search/product/list</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>imooc_002</t>
-  </si>
-  <si>
-    <t>搜索商品-劳动个税纠纷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>wbxcx_013</t>
+  </si>
+  <si>
+    <t>CRM-删除广告</t>
+  </si>
+  <si>
+    <t>http://dev.admin.be.lvdatong.com/ad/delete</t>
+  </si>
+  <si>
+    <t>{
+ "adId": 0
+}</t>
+  </si>
+  <si>
+    <t>wbxcx_014</t>
+  </si>
+  <si>
+    <t>CRM-编辑广告状态</t>
+  </si>
+  <si>
+    <t>http://dev.admin.be.lvdatong.com/ad/editStatus</t>
+  </si>
+  <si>
+    <t>{
+ "adId": 0,
+ "status": 0
+}</t>
+  </si>
+  <si>
+    <t>wbxcx_015</t>
+  </si>
+  <si>
+    <t>CRM-广告详情</t>
+  </si>
+  <si>
+    <t>http://dev.admin.be.lvdatong.com/ad/detail</t>
+  </si>
+  <si>
+    <t>wbxcx_016</t>
+  </si>
+  <si>
+    <t>CRM-根据类型获取广告列表</t>
+  </si>
+  <si>
+    <t>http://dev.admin.be.lvdatong.com/ad/getAdsByType</t>
+  </si>
+  <si>
+    <t>{
+ "advertType": ""
+}</t>
+  </si>
+  <si>
+    <t>wbxcx_017</t>
+  </si>
+  <si>
+    <t>CRM-法学院分页列表</t>
+  </si>
+  <si>
+    <t>http://dev.admin.be.lvdatong.com/market/lecture/list</t>
+  </si>
+  <si>
+    <t>{
+ "endDate": "",
+ "orderBy": "",
+ "pageNum": 0,
+ "pageSize": 0,
+ "sort": "",
+ "startDate": "",
+ "status": 0,
+ "word": ""
+}</t>
+  </si>
+  <si>
+    <t>wbxcx_018</t>
+  </si>
+  <si>
+    <t>CRM-新建法学院</t>
+  </si>
+  <si>
+    <t>http://dev.admin.be.lvdatong.com/market/lecture/new</t>
+  </si>
+  <si>
+    <t>{
+ "adId": 0,
+ "cover": 0,
+ "initLike": 0,
+ "initPlay": 0,
+ "introduce": "",
+ "recommend": 0,
+ "subTitle": "",
+ "title": "",
+ "video": 0
+}</t>
+  </si>
+  <si>
+    <t>wbxcx_019</t>
+  </si>
+  <si>
+    <t>CRM-编辑法学院</t>
+  </si>
+  <si>
+    <t>http://dev.admin.be.lvdatong.com/market/lecture/edit</t>
+  </si>
+  <si>
+    <t>{
+ "adId": 0,
+ "cover": 0,
+ "initLike": 0,
+ "initPlay": 0,
+ "introduce": "",
+ "lectureId": 0,
+ "recommend": 0,
+ "subTitle": "",
+ "title": "",
+ "video": 0
+}</t>
+  </si>
+  <si>
+    <t>wbxcx_020</t>
+  </si>
+  <si>
+    <t>CRM-法学院详情</t>
+  </si>
+  <si>
+    <t>http://dev.admin.be.lvdatong.com/market/lecture/detail</t>
+  </si>
+  <si>
+    <t>{
+ "lectureId": 0
+}</t>
+  </si>
+  <si>
+    <t>wbxcx_021</t>
+  </si>
+  <si>
+    <t>小程序-广告位-
+根据类型获取广告列表</t>
+  </si>
+  <si>
+    <t>8011/mnp/ad/list</t>
+  </si>
+  <si>
+    <t>{
+ "advertType": "",
+ "recommendId": 0
+}</t>
+  </si>
+  <si>
+    <t>wbxcx_022</t>
+  </si>
+  <si>
+    <t>小程序-法学院详情</t>
+  </si>
+  <si>
+    <t>8011/mnp/lecture/detail</t>
+  </si>
+  <si>
+    <t>wbxcx_023</t>
+  </si>
+  <si>
+    <t>小程序-点赞</t>
+  </si>
+  <si>
+    <t>8011/mnp/lecture/setLike</t>
+  </si>
+  <si>
+    <t>wbxcx_024</t>
+  </si>
+  <si>
+    <t>小程序-增加播放数</t>
+  </si>
+  <si>
+    <t>8011/mnp/lecture/setPlay</t>
+  </si>
+  <si>
+    <t>wbxcx_025</t>
+  </si>
+  <si>
+    <t>小程序-话题广场-
+增加浏览数</t>
+  </si>
+  <si>
+    <t>8011/qa/setRead</t>
+  </si>
+  <si>
+    <t>wbxcx_026</t>
+  </si>
+  <si>
+    <t>小程序-问答列表</t>
+  </si>
+  <si>
+    <t>8011/qa/list</t>
+  </si>
+  <si>
+    <t>{
+ "endTime": "",
+ "my": 0,
+ "orderBy": "",
+ "pageNum": 0,
+ "pageSize": 0,
+ "searchWord": "",
+ "sort": "",
+ "startTime": "",
+ "status": 0
+}</t>
+  </si>
+  <si>
+    <t>wbxcx_027</t>
+  </si>
+  <si>
+    <t>小程序-套餐列表</t>
+  </si>
+  <si>
+    <t>8011/mnp/productSet/list</t>
+  </si>
+  <si>
+    <t>{
+ "distribution": 0,
+ "isShow": 0,
+ "memberId": 0,
+ "orderBy": "",
+ "pageNum": 0,
+ "pageSize": 0,
+ "productSetType": 0,
+ "serviceTime": 0,
+ "sort": "",
+ "status": 0,
+ "type": 0
+}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -140,37 +534,337 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -178,10 +872,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -192,37 +1125,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -480,36 +1454,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.775" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="15.8833333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="49.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
+    <col min="11" max="11" width="12.775" customWidth="1"/>
+    <col min="12" max="12" width="8.88333333333333" style="2" customWidth="1"/>
     <col min="13" max="13" width="9" style="2" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +1528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="33" customHeight="1" spans="1:13">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -563,13 +1538,13 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -581,116 +1556,887 @@
       <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" ht="36" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="4" t="s">
-        <v>23</v>
+      <c r="F3" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" ht="33" customHeight="1" spans="1:13">
+      <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="D6" s="1"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="D8" s="1"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" ht="39" customHeight="1" spans="1:13">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" ht="51" customHeight="1" spans="1:13">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6"/>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="1:13">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7"/>
+    </row>
+    <row r="8" ht="36" customHeight="1" spans="1:13">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8"/>
+    </row>
+    <row r="9" ht="39" customHeight="1" spans="1:13">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:13">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10"/>
+    </row>
+    <row r="11" ht="33" customHeight="1" spans="1:13">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11"/>
+    </row>
+    <row r="12" ht="32" customHeight="1" spans="1:13">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12"/>
+    </row>
+    <row r="13" ht="33" customHeight="1" spans="1:13">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:13">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14"/>
+    </row>
+    <row r="15" ht="33" customHeight="1" spans="1:13">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15"/>
+    </row>
+    <row r="16" ht="29" customHeight="1" spans="1:13">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16"/>
+    </row>
+    <row r="17" ht="28" customHeight="1" spans="1:13">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17"/>
+    </row>
+    <row r="18" ht="31" customHeight="1" spans="1:13">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18"/>
+    </row>
+    <row r="19" ht="33" customHeight="1" spans="1:13">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19"/>
+    </row>
+    <row r="20" ht="29" customHeight="1" spans="1:13">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:13">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21"/>
+    </row>
+    <row r="22" ht="28" customHeight="1" spans="1:13">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22"/>
+    </row>
+    <row r="23" ht="26" customHeight="1" spans="1:13">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23"/>
+    </row>
+    <row r="24" ht="28" customHeight="1" spans="1:13">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24"/>
+    </row>
+    <row r="25" ht="26" customHeight="1" spans="1:13">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25"/>
+    </row>
+    <row r="26" ht="29" customHeight="1" spans="1:13">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26"/>
+    </row>
+    <row r="27" ht="28" customHeight="1" spans="1:13">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27"/>
+    </row>
+    <row r="28" ht="30" customHeight="1" spans="1:13">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F11" r:id="rId1" display="http://dev.admin.be.lvdatong.com/ad/list"/>
+    <hyperlink ref="F12" r:id="rId2" display="http://dev.admin.be.lvdatong.com/ad/new"/>
+    <hyperlink ref="F13" r:id="rId3" display="http://dev.admin.be.lvdatong.com/ad/edit"/>
+    <hyperlink ref="F14" r:id="rId4" display="http://dev.admin.be.lvdatong.com/ad/delete"/>
+    <hyperlink ref="F15" r:id="rId5" display="http://dev.admin.be.lvdatong.com/ad/editStatus"/>
+    <hyperlink ref="F16" r:id="rId6" display="http://dev.admin.be.lvdatong.com/ad/detail"/>
+    <hyperlink ref="F17" r:id="rId7" display="http://dev.admin.be.lvdatong.com/ad/getAdsByType"/>
+    <hyperlink ref="F18" r:id="rId8" display="http://dev.admin.be.lvdatong.com/market/lecture/list"/>
+    <hyperlink ref="F19" r:id="rId9" display="http://dev.admin.be.lvdatong.com/market/lecture/new"/>
+    <hyperlink ref="F20" r:id="rId10" display="http://dev.admin.be.lvdatong.com/market/lecture/edit"/>
+    <hyperlink ref="F21" r:id="rId11" display="http://dev.admin.be.lvdatong.com/market/lecture/detail"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>